--- a/backend/common/primary_data/屯門升学数据.xlsx
+++ b/backend/common/primary_data/屯門升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15880" firstSheet="2" activeTab="2"/>
+    <workbookView windowHeight="15840" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="東華三院鄧肇堅小學" sheetId="1" r:id="rId1"/>
@@ -3489,7 +3489,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>

--- a/backend/common/primary_data/屯門升学数据.xlsx
+++ b/backend/common/primary_data/屯門升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15840" firstSheet="2" activeTab="2"/>
+    <workbookView windowHeight="15820" firstSheet="30" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="東華三院鄧肇堅小學" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <sheet name="道教青松小學(湖景邨)" sheetId="33" r:id="rId33"/>
     <sheet name="屯門官立小學" sheetId="34" r:id="rId34"/>
     <sheet name="鄉師自然學校" sheetId="35" r:id="rId35"/>
-    <sheet name="圓玄小學" sheetId="36" r:id="rId36"/>
+    <sheet name="保良局香港道教聯合會圓玄小學" sheetId="36" r:id="rId36"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3488,7 +3488,7 @@
   <sheetPr codeName="聖公會蒙恩小學"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4403,8 +4403,8 @@
   <sheetPr codeName="圓玄小學"/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
